--- a/excel/projects/store data analysis using excel/data100.xlsx
+++ b/excel/projects/store data analysis using excel/data100.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,9 @@
     <sheet name="original_data" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_data100.xlsxTable11" hidden="1">Table1[]</definedName>
-    <definedName name="_xlcn.WorksheetConnection_Sheet1T1W331" hidden="1">original_data!$T$1:$W$33</definedName>
-    <definedName name="_xlcn.WorksheetConnection_Sheet1Y2AA51" hidden="1">original_data!$Y$2:$AA$5</definedName>
+    <definedName name="_xlcn.WorksheetConnection_data100.xlsxTable1" hidden="1">Table1[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Sheet1T1W33" hidden="1">original_data!$T$1:$W$33</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Sheet1Y2AA5" hidden="1">original_data!$Y$2:$AA$5</definedName>
     <definedName name="Slicer_Gender">#N/A</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -148,7 +148,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_data100.xlsxTable11"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_data100.xlsxTable1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -157,7 +157,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Sheet1T1W331"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Sheet1T1W33"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -166,7 +166,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Sheet1Y2AA51"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Sheet1Y2AA5"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -1407,7 +1407,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1665,7 +1664,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1767,7 +1765,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2145,7 +2142,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4048,6 +4044,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12091,11 +12088,11 @@
       </c>
       <c r="AE17" s="12">
         <f ca="1">NOW()</f>
-        <v>45481.547094328707</v>
+        <v>45484.47451064815</v>
       </c>
       <c r="AF17">
         <f ca="1">WEEKDAY(AE17,1)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.3">
@@ -19171,7 +19168,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A3:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -19670,8 +19667,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AB100"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20080,7 +20077,7 @@
         <v>75</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B6&gt;=50,"Senior", IF(B6&gt;=30,"Adults","Teenager"))</f>
         <v>Senior</v>
       </c>
       <c r="D6" s="9">
